--- a/biology/Zoologie/Carbonemys/Carbonemys.xlsx
+++ b/biology/Zoologie/Carbonemys/Carbonemys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carbonemys est un genre fossile de tortues pleurodires qui vivaient en Colombie au cours du Paléocène, il y a entre environ 60 et 57 millions d'années (Ma). Il n'est représenté que par une seule espèce, Carbonemys cofrinii.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbonemys a été trouvé en 2005 dans la mine de charbon de Cerrejón, en Colombie, et décrit par Edwin A. Cadena (d) et al. en 2012[1]. Sur ce même site ont été également découverts Titanoboa et Cerrejonisuchus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbonemys a été trouvé en 2005 dans la mine de charbon de Cerrejón, en Colombie, et décrit par Edwin A. Cadena (d) et al. en 2012. Sur ce même site ont été également découverts Titanoboa et Cerrejonisuchus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbonemys est une tortue d'eau douce géante (environ 2,50 m de long, dont 1,80 m pour la carapace), avec une forte mâchoire qui lui aurait permis de s'attaquer à des crocodiles de taille moyenne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbonemys est une tortue d'eau douce géante (environ 2,50 m de long, dont 1,80 m pour la carapace), avec une forte mâchoire qui lui aurait permis de s'attaquer à des crocodiles de taille moyenne.
 </t>
         </is>
       </c>
